--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,10 +91,10 @@
     <t>Itgb3</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H2">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J2">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>49.02938664047839</v>
+        <v>24.516827539595</v>
       </c>
       <c r="R2">
-        <v>49.02938664047839</v>
+        <v>220.651447856355</v>
       </c>
       <c r="S2">
-        <v>0.4312121790856061</v>
+        <v>0.1287927870266313</v>
       </c>
       <c r="T2">
-        <v>0.4312121790856061</v>
+        <v>0.1287927870266313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H3">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J3">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>26.31892846624633</v>
+        <v>10.215578575104</v>
       </c>
       <c r="R3">
-        <v>26.31892846624633</v>
+        <v>91.94020717593601</v>
       </c>
       <c r="S3">
-        <v>0.2314742906809804</v>
+        <v>0.05366488929500871</v>
       </c>
       <c r="T3">
-        <v>0.2314742906809804</v>
+        <v>0.05366488929500874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H4">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J4">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>2.132505122354778</v>
+        <v>0.8504018847670001</v>
       </c>
       <c r="R4">
-        <v>2.132505122354778</v>
+        <v>7.653616962903</v>
       </c>
       <c r="S4">
-        <v>0.01875532703406563</v>
+        <v>0.004467365471937864</v>
       </c>
       <c r="T4">
-        <v>0.01875532703406563</v>
+        <v>0.004467365471937866</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>9.556699030345159</v>
+        <v>3.708951</v>
       </c>
       <c r="H5">
-        <v>9.556699030345159</v>
+        <v>11.126853</v>
       </c>
       <c r="I5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J5">
-        <v>0.7000061215111694</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>2.11078790928734</v>
+        <v>0.796927465566</v>
       </c>
       <c r="R5">
-        <v>2.11078790928734</v>
+        <v>7.172347190094</v>
       </c>
       <c r="S5">
-        <v>0.0185643247105174</v>
+        <v>0.004186451496734327</v>
       </c>
       <c r="T5">
-        <v>0.0185643247105174</v>
+        <v>0.004186451496734328</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.09560876621269</v>
+        <v>3.708951</v>
       </c>
       <c r="H6">
-        <v>4.09560876621269</v>
+        <v>11.126853</v>
       </c>
       <c r="I6">
-        <v>0.2999938784888306</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="J6">
-        <v>0.2999938784888306</v>
+        <v>0.1962880377928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>21.01198176160646</v>
+        <v>0.9854002832650001</v>
       </c>
       <c r="R6">
-        <v>21.01198176160646</v>
+        <v>8.868602549385001</v>
       </c>
       <c r="S6">
-        <v>0.1847998325732457</v>
+        <v>0.005176544502487769</v>
       </c>
       <c r="T6">
-        <v>0.1847998325732457</v>
+        <v>0.005176544502487772</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H7">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J7">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>11.27921197491034</v>
+        <v>67.97706668917945</v>
       </c>
       <c r="R7">
-        <v>11.27921197491034</v>
+        <v>611.793600202615</v>
       </c>
       <c r="S7">
-        <v>0.09920037567947219</v>
+        <v>0.3570998677808223</v>
       </c>
       <c r="T7">
-        <v>0.09920037567947219</v>
+        <v>0.3570998677808224</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.09560876621269</v>
+        <v>10.28369633333333</v>
       </c>
       <c r="H8">
-        <v>4.09560876621269</v>
+        <v>30.851089</v>
       </c>
       <c r="I8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121536</v>
       </c>
       <c r="J8">
-        <v>0.2999938784888306</v>
+        <v>0.5442419095121537</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>0.9139041258259915</v>
+        <v>28.32442594568533</v>
       </c>
       <c r="R8">
-        <v>0.9139041258259915</v>
+        <v>254.919833511168</v>
       </c>
       <c r="S8">
-        <v>0.008037762994314026</v>
+        <v>0.1487950165078537</v>
       </c>
       <c r="T8">
-        <v>0.008037762994314026</v>
+        <v>0.1487950165078537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,495 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H9">
+        <v>30.851089</v>
+      </c>
+      <c r="I9">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J9">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.687851</v>
+      </c>
+      <c r="O9">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P9">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q9">
+        <v>2.357883602193222</v>
+      </c>
+      <c r="R9">
+        <v>21.220952419739</v>
+      </c>
+      <c r="S9">
+        <v>0.01238652921632757</v>
+      </c>
+      <c r="T9">
+        <v>0.01238652921632757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H10">
+        <v>30.851089</v>
+      </c>
+      <c r="I10">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J10">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.214866</v>
+      </c>
+      <c r="N10">
+        <v>0.644598</v>
+      </c>
+      <c r="O10">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P10">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q10">
+        <v>2.209616696358</v>
+      </c>
+      <c r="R10">
+        <v>19.886550267222</v>
+      </c>
+      <c r="S10">
+        <v>0.0116076475280058</v>
+      </c>
+      <c r="T10">
+        <v>0.0116076475280058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>10.28369633333333</v>
+      </c>
+      <c r="H11">
+        <v>30.851089</v>
+      </c>
+      <c r="I11">
+        <v>0.5442419095121536</v>
+      </c>
+      <c r="J11">
+        <v>0.5442419095121537</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.797045</v>
+      </c>
+      <c r="O11">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P11">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q11">
+        <v>2.732189581333889</v>
+      </c>
+      <c r="R11">
+        <v>24.589706232005</v>
+      </c>
+      <c r="S11">
+        <v>0.01435284847914418</v>
+      </c>
+      <c r="T11">
+        <v>0.01435284847914419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H12">
+        <v>14.708411</v>
+      </c>
+      <c r="I12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J12">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N12">
+        <v>19.830535</v>
+      </c>
+      <c r="O12">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P12">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q12">
+        <v>32.40840656998722</v>
+      </c>
+      <c r="R12">
+        <v>291.675659129885</v>
+      </c>
+      <c r="S12">
+        <v>0.1702491482023858</v>
+      </c>
+      <c r="T12">
+        <v>0.1702491482023858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="H9">
-        <v>4.09560876621269</v>
-      </c>
-      <c r="I9">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="J9">
-        <v>0.2999938784888306</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="N9">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="O9">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="P9">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="Q9">
-        <v>0.9045970201052524</v>
-      </c>
-      <c r="R9">
-        <v>0.9045970201052524</v>
-      </c>
-      <c r="S9">
-        <v>0.007955907241798725</v>
-      </c>
-      <c r="T9">
-        <v>0.007955907241798725</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H13">
+        <v>14.708411</v>
+      </c>
+      <c r="I13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J13">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.754304</v>
+      </c>
+      <c r="N13">
+        <v>8.262912</v>
+      </c>
+      <c r="O13">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P13">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q13">
+        <v>13.50381175031466</v>
+      </c>
+      <c r="R13">
+        <v>121.534305752832</v>
+      </c>
+      <c r="S13">
+        <v>0.07093876840293373</v>
+      </c>
+      <c r="T13">
+        <v>0.07093876840293376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H14">
+        <v>14.708411</v>
+      </c>
+      <c r="I14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J14">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.687851</v>
+      </c>
+      <c r="O14">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P14">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q14">
+        <v>1.124132801640111</v>
+      </c>
+      <c r="R14">
+        <v>10.117195214761</v>
+      </c>
+      <c r="S14">
+        <v>0.005905339762147578</v>
+      </c>
+      <c r="T14">
+        <v>0.005905339762147579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H15">
+        <v>14.708411</v>
+      </c>
+      <c r="I15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J15">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.214866</v>
+      </c>
+      <c r="N15">
+        <v>0.644598</v>
+      </c>
+      <c r="O15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q15">
+        <v>1.053445812642</v>
+      </c>
+      <c r="R15">
+        <v>9.481012313778001</v>
+      </c>
+      <c r="S15">
+        <v>0.005534004021220882</v>
+      </c>
+      <c r="T15">
+        <v>0.005534004021220883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.902803666666666</v>
+      </c>
+      <c r="H16">
+        <v>14.708411</v>
+      </c>
+      <c r="I16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="J16">
+        <v>0.2594700526950464</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.797045</v>
+      </c>
+      <c r="O16">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P16">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q16">
+        <v>1.302585049499444</v>
+      </c>
+      <c r="R16">
+        <v>11.723265445495</v>
+      </c>
+      <c r="S16">
+        <v>0.006842792306358378</v>
+      </c>
+      <c r="T16">
+        <v>0.00684279230635838</v>
       </c>
     </row>
   </sheetData>
